--- a/Data/Output/FinalResult.xlsx
+++ b/Data/Output/FinalResult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajish\Desktop\Urbis\URBIS_CaseStudy\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8C0FF9-9C86-4E09-88C7-39AEB2B9DD36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D21CCBE-F3BB-4F20-B278-B8C18172131E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{CAA133AD-40C0-4994-A3F6-BEB034BD47C3}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{04CE1E66-7BFB-4552-8429-C0039E59D7F3}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>SI No</t>
   </si>
@@ -71,15 +71,6 @@
   </si>
   <si>
     <t>Data\Output\Screenshots\Image_3.jpg</t>
-  </si>
-  <si>
-    <t>62/-/DP754948</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> NARRABRI SHIRE COUNCIL</t>
-  </si>
-  <si>
-    <t>Data\Output\Screenshots\Image_4.jpg</t>
   </si>
 </sst>
 </file>
@@ -430,8 +421,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D1F5AB-D32F-4498-A460-B95279D18D4D}">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17A54D3-2128-4B09-AF36-4F3B40DFEFCD}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -493,27 +484,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DD8687-35BD-4C2A-A59E-5DA47817C419}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90773AEF-683D-4E45-A6D2-BECB9469C753}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Data/Output/FinalResult.xlsx
+++ b/Data/Output/FinalResult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajish\Desktop\Urbis\URBIS_CaseStudy\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D21CCBE-F3BB-4F20-B278-B8C18172131E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30CCD3A3-1FFA-468C-AF4E-754E2D576F4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{04CE1E66-7BFB-4552-8429-C0039E59D7F3}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5D188789-7FA7-4C72-8700-6F127ADAE219}"/>
   </bookViews>
   <sheets>
     <sheet name="Result" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <t>Council</t>
   </si>
   <si>
-    <t>ScreenShot Path</t>
+    <t>ImgPath</t>
   </si>
   <si>
     <t>4/-/DP1044304</t>
@@ -67,10 +67,10 @@
     <t>10/-/DP6700</t>
   </si>
   <si>
-    <t xml:space="preserve"> RANDWICK CITY COUNCIL</t>
-  </si>
-  <si>
     <t>Data\Output\Screenshots\Image_3.jpg</t>
+  </si>
+  <si>
+    <t>RANDWICK CITY COUNCIL</t>
   </si>
 </sst>
 </file>
@@ -421,12 +421,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E17A54D3-2128-4B09-AF36-4F3B40DFEFCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E078A7B-27A8-4A3E-B033-703CF6F4F7E8}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -490,7 +496,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90773AEF-683D-4E45-A6D2-BECB9469C753}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A50D6A6-F0DA-46AF-A066-DC570F56E8BE}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
